--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.3638713461905</v>
+        <v>6.114015666666666</v>
       </c>
       <c r="H2">
-        <v>2.3638713461905</v>
+        <v>18.342047</v>
       </c>
       <c r="I2">
-        <v>0.14409372832255</v>
+        <v>0.3019936850190227</v>
       </c>
       <c r="J2">
-        <v>0.14409372832255</v>
+        <v>0.3019936850190227</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.494060934262039</v>
+        <v>8.828998666666665</v>
       </c>
       <c r="N2">
-        <v>8.494060934262039</v>
+        <v>26.486996</v>
       </c>
       <c r="O2">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="P2">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="Q2">
-        <v>20.07886725529814</v>
+        <v>53.9806361689791</v>
       </c>
       <c r="R2">
-        <v>20.07886725529814</v>
+        <v>485.8257255208119</v>
       </c>
       <c r="S2">
-        <v>0.02531673167906829</v>
+        <v>0.05419143211025401</v>
       </c>
       <c r="T2">
-        <v>0.02531673167906829</v>
+        <v>0.05419143211025401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.3638713461905</v>
+        <v>6.114015666666666</v>
       </c>
       <c r="H3">
-        <v>2.3638713461905</v>
+        <v>18.342047</v>
       </c>
       <c r="I3">
-        <v>0.14409372832255</v>
+        <v>0.3019936850190227</v>
       </c>
       <c r="J3">
-        <v>0.14409372832255</v>
+        <v>0.3019936850190227</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.1002042850288</v>
+        <v>19.33828433333333</v>
       </c>
       <c r="N3">
-        <v>19.1002042850288</v>
+        <v>58.014853</v>
       </c>
       <c r="O3">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="P3">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="Q3">
-        <v>45.15042561576458</v>
+        <v>118.2345733804545</v>
       </c>
       <c r="R3">
-        <v>45.15042561576458</v>
+        <v>1064.111160424091</v>
       </c>
       <c r="S3">
-        <v>0.05692857052025321</v>
+        <v>0.1186962827999018</v>
       </c>
       <c r="T3">
-        <v>0.05692857052025321</v>
+        <v>0.1186962827999018</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.3638713461905</v>
+        <v>6.114015666666666</v>
       </c>
       <c r="H4">
-        <v>2.3638713461905</v>
+        <v>18.342047</v>
       </c>
       <c r="I4">
-        <v>0.14409372832255</v>
+        <v>0.3019936850190227</v>
       </c>
       <c r="J4">
-        <v>0.14409372832255</v>
+        <v>0.3019936850190227</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.7508736450866</v>
+        <v>21.03425566666667</v>
       </c>
       <c r="N4">
-        <v>20.7508736450866</v>
+        <v>63.102767</v>
       </c>
       <c r="O4">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="P4">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="Q4">
-        <v>49.05239561803982</v>
+        <v>128.6037686826721</v>
       </c>
       <c r="R4">
-        <v>49.05239561803982</v>
+        <v>1157.433918144049</v>
       </c>
       <c r="S4">
-        <v>0.06184842612322852</v>
+        <v>0.1291059701088669</v>
       </c>
       <c r="T4">
-        <v>0.06184842612322852</v>
+        <v>0.1291059701088669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.8991277754184</v>
+        <v>10.98032466666667</v>
       </c>
       <c r="H5">
-        <v>10.8991277754184</v>
+        <v>32.940974</v>
       </c>
       <c r="I5">
-        <v>0.6643745477751286</v>
+        <v>0.5423585560747838</v>
       </c>
       <c r="J5">
-        <v>0.6643745477751286</v>
+        <v>0.5423585560747838</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.494060934262039</v>
+        <v>8.828998666666665</v>
       </c>
       <c r="N5">
-        <v>8.494060934262039</v>
+        <v>26.486996</v>
       </c>
       <c r="O5">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="P5">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="Q5">
-        <v>92.57785545471175</v>
+        <v>96.94527184156711</v>
       </c>
       <c r="R5">
-        <v>92.57785545471175</v>
+        <v>872.5074465741041</v>
       </c>
       <c r="S5">
-        <v>0.1167281349176739</v>
+        <v>0.09732384592442944</v>
       </c>
       <c r="T5">
-        <v>0.1167281349176739</v>
+        <v>0.09732384592442944</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.8991277754184</v>
+        <v>10.98032466666667</v>
       </c>
       <c r="H6">
-        <v>10.8991277754184</v>
+        <v>32.940974</v>
       </c>
       <c r="I6">
-        <v>0.6643745477751286</v>
+        <v>0.5423585560747838</v>
       </c>
       <c r="J6">
-        <v>0.6643745477751286</v>
+        <v>0.5423585560747838</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.1002042850288</v>
+        <v>19.33828433333333</v>
       </c>
       <c r="N6">
-        <v>19.1002042850288</v>
+        <v>58.014853</v>
       </c>
       <c r="O6">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="P6">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="Q6">
-        <v>208.1755670391229</v>
+        <v>212.3406404763136</v>
       </c>
       <c r="R6">
-        <v>208.1755670391229</v>
+        <v>1911.065764286822</v>
       </c>
       <c r="S6">
-        <v>0.2624811900918715</v>
+        <v>0.2131698368021962</v>
       </c>
       <c r="T6">
-        <v>0.2624811900918715</v>
+        <v>0.2131698368021962</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.8991277754184</v>
+        <v>10.98032466666667</v>
       </c>
       <c r="H7">
-        <v>10.8991277754184</v>
+        <v>32.940974</v>
       </c>
       <c r="I7">
-        <v>0.6643745477751286</v>
+        <v>0.5423585560747838</v>
       </c>
       <c r="J7">
-        <v>0.6643745477751286</v>
+        <v>0.5423585560747838</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.7508736450866</v>
+        <v>21.03425566666667</v>
       </c>
       <c r="N7">
-        <v>20.7508736450866</v>
+        <v>63.102767</v>
       </c>
       <c r="O7">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="P7">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="Q7">
-        <v>226.166423309361</v>
+        <v>230.9629563416731</v>
       </c>
       <c r="R7">
-        <v>226.166423309361</v>
+        <v>2078.666607075058</v>
       </c>
       <c r="S7">
-        <v>0.2851652227655831</v>
+        <v>0.2318648733481581</v>
       </c>
       <c r="T7">
-        <v>0.2851652227655831</v>
+        <v>0.2318648733481581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.14209618482273</v>
+        <v>3.151168</v>
       </c>
       <c r="H8">
-        <v>3.14209618482273</v>
+        <v>9.453503999999999</v>
       </c>
       <c r="I8">
-        <v>0.1915317239023213</v>
+        <v>0.1556477589061936</v>
       </c>
       <c r="J8">
-        <v>0.1915317239023213</v>
+        <v>0.1556477589061936</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.494060934262039</v>
+        <v>8.828998666666665</v>
       </c>
       <c r="N8">
-        <v>8.494060934262039</v>
+        <v>26.486996</v>
       </c>
       <c r="O8">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="P8">
-        <v>0.1756962775117974</v>
+        <v>0.1794455804823882</v>
       </c>
       <c r="Q8">
-        <v>26.68915645519655</v>
+        <v>27.82165807044266</v>
       </c>
       <c r="R8">
-        <v>26.68915645519655</v>
+        <v>250.394922633984</v>
       </c>
       <c r="S8">
-        <v>0.0336514109150552</v>
+        <v>0.02793030244770471</v>
       </c>
       <c r="T8">
-        <v>0.0336514109150552</v>
+        <v>0.0279303024477047</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.14209618482273</v>
+        <v>3.151168</v>
       </c>
       <c r="H9">
-        <v>3.14209618482273</v>
+        <v>9.453503999999999</v>
       </c>
       <c r="I9">
-        <v>0.1915317239023213</v>
+        <v>0.1556477589061936</v>
       </c>
       <c r="J9">
-        <v>0.1915317239023213</v>
+        <v>0.1556477589061936</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.1002042850288</v>
+        <v>19.33828433333333</v>
       </c>
       <c r="N9">
-        <v>19.1002042850288</v>
+        <v>58.014853</v>
       </c>
       <c r="O9">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="P9">
-        <v>0.3950801411205081</v>
+        <v>0.3930422677296217</v>
       </c>
       <c r="Q9">
-        <v>60.01467901332375</v>
+        <v>60.93818276610133</v>
       </c>
       <c r="R9">
-        <v>60.01467901332375</v>
+        <v>548.4436448949119</v>
       </c>
       <c r="S9">
-        <v>0.0756703805083833</v>
+        <v>0.06117614812752375</v>
       </c>
       <c r="T9">
-        <v>0.0756703805083833</v>
+        <v>0.06117614812752374</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.14209618482273</v>
+        <v>3.151168</v>
       </c>
       <c r="H10">
-        <v>3.14209618482273</v>
+        <v>9.453503999999999</v>
       </c>
       <c r="I10">
-        <v>0.1915317239023213</v>
+        <v>0.1556477589061936</v>
       </c>
       <c r="J10">
-        <v>0.1915317239023213</v>
+        <v>0.1556477589061936</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.7508736450866</v>
+        <v>21.03425566666667</v>
       </c>
       <c r="N10">
-        <v>20.7508736450866</v>
+        <v>63.102767</v>
       </c>
       <c r="O10">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="P10">
-        <v>0.4292235813676945</v>
+        <v>0.4275121517879902</v>
       </c>
       <c r="Q10">
-        <v>65.20124091196514</v>
+        <v>66.28247336061867</v>
       </c>
       <c r="R10">
-        <v>65.20124091196514</v>
+        <v>596.5422602455679</v>
       </c>
       <c r="S10">
-        <v>0.08220993247888281</v>
+        <v>0.06654130833096514</v>
       </c>
       <c r="T10">
-        <v>0.08220993247888281</v>
+        <v>0.06654130833096512</v>
       </c>
     </row>
   </sheetData>
